--- a/data/Catalogos/Catalogo Operadores.xlsx
+++ b/data/Catalogos/Catalogo Operadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INNOVACION\PASANTE\DESARROLLO\BalanceFinacieroSFN\data\Otros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INNOVACION\PASANTE\DESARROLLO\BalancesEstadosFinancierosSFN\data\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0F019-693C-475B-A7FD-32F077D3D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DE8468-63BA-47A6-92A4-B7F2FF0B54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-690" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1200">
   <si>
     <t>AZUAY</t>
   </si>
@@ -3605,6 +3605,24 @@
   </si>
   <si>
     <t>BP BANCO DESARROLLO DE LOS PUEBLOS S.A. CODESARROLLO</t>
+  </si>
+  <si>
+    <t>190055965001</t>
+  </si>
+  <si>
+    <t>990247536001</t>
+  </si>
+  <si>
+    <t>790002350001</t>
+  </si>
+  <si>
+    <t>1760002870001</t>
+  </si>
+  <si>
+    <t>1768095900001</t>
+  </si>
+  <si>
+    <t>1760003170001</t>
   </si>
 </sst>
 </file>
@@ -3663,7 +3681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3674,9 +3692,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3685,6 +3700,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4004,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4015,7 +4036,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>1186</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4023,7 +4044,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4031,7 +4052,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4039,7 +4060,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4047,7 +4068,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4055,7 +4076,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4063,7 +4084,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4071,7 +4092,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4079,7 +4100,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4087,7 +4108,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4095,7 +4116,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4103,7 +4124,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4111,7 +4132,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4119,7 +4140,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4127,7 +4148,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4135,7 +4156,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4143,7 +4164,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4151,7 +4172,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4159,7 +4180,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4167,7 +4188,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4175,7 +4196,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4183,7 +4204,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4191,7 +4212,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4199,7 +4220,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4207,7 +4228,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4215,7 +4236,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4223,7 +4244,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4231,7 +4252,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4239,7 +4260,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4247,7 +4268,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4255,7 +4276,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4263,7 +4284,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4271,7 +4292,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4279,7 +4300,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4287,7 +4308,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4295,7 +4316,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4303,7 +4324,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4311,7 +4332,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4319,7 +4340,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4327,7 +4348,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4335,7 +4356,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4343,7 +4364,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4351,7 +4372,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4359,7 +4380,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4367,7 +4388,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4375,7 +4396,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4383,7 +4404,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4391,7 +4412,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4399,7 +4420,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4407,7 +4428,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4415,7 +4436,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4423,7 +4444,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4431,7 +4452,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4439,7 +4460,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4447,7 +4468,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4455,7 +4476,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4463,7 +4484,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4471,7 +4492,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4479,7 +4500,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4487,7 +4508,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4495,7 +4516,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4503,7 +4524,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4511,7 +4532,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4519,7 +4540,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4527,7 +4548,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4535,7 +4556,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4543,31 +4564,31 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4575,7 +4596,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4583,7 +4604,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4591,7 +4612,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4599,7 +4620,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4607,7 +4628,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4615,7 +4636,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4623,7 +4644,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4631,7 +4652,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4639,7 +4660,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4647,7 +4668,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4655,7 +4676,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4663,7 +4684,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4671,7 +4692,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4679,7 +4700,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4687,7 +4708,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4695,7 +4716,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4703,7 +4724,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4711,7 +4732,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4719,7 +4740,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4727,7 +4748,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4735,7 +4756,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4743,7 +4764,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4751,7 +4772,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4759,7 +4780,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4767,7 +4788,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4775,7 +4796,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4783,7 +4804,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4791,7 +4812,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4799,7 +4820,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4807,7 +4828,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -4815,7 +4836,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4823,7 +4844,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4831,7 +4852,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4839,7 +4860,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -4847,7 +4868,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -4855,7 +4876,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4863,7 +4884,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -4871,7 +4892,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -4879,7 +4900,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -4887,7 +4908,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -4895,7 +4916,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -4903,7 +4924,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -4911,7 +4932,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -4919,7 +4940,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -4927,7 +4948,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -4935,7 +4956,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4943,7 +4964,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -4951,7 +4972,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -4959,7 +4980,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -4967,7 +4988,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -4975,7 +4996,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -4983,7 +5004,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -4991,7 +5012,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -4999,7 +5020,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5007,7 +5028,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5015,7 +5036,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -5023,7 +5044,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -5031,7 +5052,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -5039,7 +5060,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -5047,7 +5068,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -5055,7 +5076,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -5063,7 +5084,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -5071,7 +5092,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -5079,7 +5100,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -5087,7 +5108,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -5095,7 +5116,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -5103,7 +5124,7 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -5111,7 +5132,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -5119,7 +5140,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -5127,7 +5148,7 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -5135,7 +5156,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -5143,7 +5164,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -5151,7 +5172,7 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -5159,7 +5180,7 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -5167,7 +5188,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -5175,7 +5196,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -5183,7 +5204,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -5191,7 +5212,7 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -5199,7 +5220,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -5207,7 +5228,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -5215,7 +5236,7 @@
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -5223,7 +5244,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -5231,7 +5252,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -5239,7 +5260,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -5247,7 +5268,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -5255,7 +5276,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -5263,7 +5284,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -5271,7 +5292,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -5279,7 +5300,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -5287,7 +5308,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -5295,7 +5316,7 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -5303,7 +5324,7 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -5311,7 +5332,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -5319,7 +5340,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -5327,7 +5348,7 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -5335,7 +5356,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -5343,15 +5364,15 @@
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>190055965001</v>
+      <c r="A167" s="3" t="s">
+        <v>1194</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -5359,7 +5380,7 @@
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -5367,7 +5388,7 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -5375,7 +5396,7 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -5383,7 +5404,7 @@
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -5391,7 +5412,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -5399,7 +5420,7 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -5407,7 +5428,7 @@
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -5415,7 +5436,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -5423,7 +5444,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -5431,7 +5452,7 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -5439,7 +5460,7 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -5447,15 +5468,15 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1">
-        <v>990247536001</v>
+      <c r="A180" s="3" t="s">
+        <v>1195</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -5463,7 +5484,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -5471,7 +5492,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>697</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -5479,7 +5500,7 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -5487,7 +5508,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -5495,7 +5516,7 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -5503,7 +5524,7 @@
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -5511,7 +5532,7 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -5519,7 +5540,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -5527,7 +5548,7 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -5535,7 +5556,7 @@
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -5543,7 +5564,7 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -5551,7 +5572,7 @@
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -5559,7 +5580,7 @@
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -5567,7 +5588,7 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -5575,7 +5596,7 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -5583,7 +5604,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -5591,7 +5612,7 @@
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -5599,7 +5620,7 @@
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -5607,7 +5628,7 @@
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -5615,7 +5636,7 @@
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>725</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -5623,7 +5644,7 @@
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -5631,7 +5652,7 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -5639,7 +5660,7 @@
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -5647,7 +5668,7 @@
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -5655,7 +5676,7 @@
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -5663,7 +5684,7 @@
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -5671,7 +5692,7 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -5679,7 +5700,7 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -5687,7 +5708,7 @@
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -5695,7 +5716,7 @@
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -5703,7 +5724,7 @@
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -5711,7 +5732,7 @@
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -5719,7 +5740,7 @@
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -5727,7 +5748,7 @@
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -5735,7 +5756,7 @@
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -5743,7 +5764,7 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -5751,7 +5772,7 @@
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -5759,7 +5780,7 @@
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -5767,7 +5788,7 @@
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -5775,7 +5796,7 @@
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -5783,7 +5804,7 @@
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -5791,7 +5812,7 @@
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -5799,7 +5820,7 @@
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -5807,7 +5828,7 @@
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -5815,7 +5836,7 @@
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -5823,7 +5844,7 @@
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -5831,7 +5852,7 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -5839,7 +5860,7 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -5847,7 +5868,7 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -5855,7 +5876,7 @@
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -5863,7 +5884,7 @@
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -5871,7 +5892,7 @@
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -5879,7 +5900,7 @@
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -5887,7 +5908,7 @@
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -5895,7 +5916,7 @@
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -5903,7 +5924,7 @@
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -5911,7 +5932,7 @@
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -5919,7 +5940,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -5927,7 +5948,7 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -5935,7 +5956,7 @@
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -5943,7 +5964,7 @@
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -5951,7 +5972,7 @@
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -5959,7 +5980,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -5967,7 +5988,7 @@
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -5975,7 +5996,7 @@
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -5983,7 +6004,7 @@
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -5991,7 +6012,7 @@
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -5999,7 +6020,7 @@
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -6007,7 +6028,7 @@
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -6015,7 +6036,7 @@
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -6023,7 +6044,7 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -6031,7 +6052,7 @@
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -6039,7 +6060,7 @@
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -6047,7 +6068,7 @@
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -6055,7 +6076,7 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="3" t="s">
         <v>757</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -6063,7 +6084,7 @@
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -6071,7 +6092,7 @@
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -6079,7 +6100,7 @@
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -6087,7 +6108,7 @@
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -6095,7 +6116,7 @@
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -6103,7 +6124,7 @@
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -6111,7 +6132,7 @@
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -6119,7 +6140,7 @@
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -6127,7 +6148,7 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -6135,7 +6156,7 @@
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -6143,7 +6164,7 @@
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -6151,7 +6172,7 @@
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -6159,7 +6180,7 @@
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -6167,7 +6188,7 @@
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -6175,7 +6196,7 @@
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -6183,7 +6204,7 @@
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -6191,7 +6212,7 @@
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -6199,7 +6220,7 @@
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -6207,7 +6228,7 @@
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -6215,7 +6236,7 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -6223,7 +6244,7 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -6231,7 +6252,7 @@
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -6239,7 +6260,7 @@
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -6247,7 +6268,7 @@
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -6255,7 +6276,7 @@
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -6263,7 +6284,7 @@
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -6271,7 +6292,7 @@
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -6279,7 +6300,7 @@
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -6287,7 +6308,7 @@
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -6295,7 +6316,7 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -6303,7 +6324,7 @@
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -6311,7 +6332,7 @@
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -6319,7 +6340,7 @@
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -6335,7 +6356,7 @@
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -6343,7 +6364,7 @@
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -6351,7 +6372,7 @@
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -6359,7 +6380,7 @@
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -6367,7 +6388,7 @@
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -6375,7 +6396,7 @@
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -6383,7 +6404,7 @@
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -6391,7 +6412,7 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -6399,7 +6420,7 @@
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -6407,7 +6428,7 @@
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -6415,7 +6436,7 @@
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -6423,7 +6444,7 @@
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -6431,7 +6452,7 @@
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="3" t="s">
         <v>599</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -6439,7 +6460,7 @@
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -6447,7 +6468,7 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -6455,7 +6476,7 @@
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -6463,7 +6484,7 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -6471,7 +6492,7 @@
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="3" t="s">
         <v>609</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -6479,7 +6500,7 @@
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -6487,7 +6508,7 @@
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -6495,7 +6516,7 @@
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -6503,7 +6524,7 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -6511,7 +6532,7 @@
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -6519,7 +6540,7 @@
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -6527,7 +6548,7 @@
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -6535,7 +6556,7 @@
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="3" t="s">
         <v>625</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -6543,7 +6564,7 @@
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="3" t="s">
         <v>627</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -6551,7 +6572,7 @@
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -6559,7 +6580,7 @@
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -6567,7 +6588,7 @@
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -6575,7 +6596,7 @@
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -6583,7 +6604,7 @@
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -6591,7 +6612,7 @@
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -6599,7 +6620,7 @@
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -6607,7 +6628,7 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="3" t="s">
         <v>643</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -6615,7 +6636,7 @@
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="3" t="s">
         <v>645</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -6623,7 +6644,7 @@
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="3" t="s">
         <v>647</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -6631,7 +6652,7 @@
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -6639,7 +6660,7 @@
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -6647,7 +6668,7 @@
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B330" s="1" t="s">
@@ -6655,7 +6676,7 @@
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -6663,7 +6684,7 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="3" t="s">
         <v>657</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -6671,7 +6692,7 @@
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="3" t="s">
         <v>659</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -6679,7 +6700,7 @@
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -6687,7 +6708,7 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="3" t="s">
         <v>663</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -6695,7 +6716,7 @@
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="3" t="s">
         <v>665</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -6703,7 +6724,7 @@
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -6711,7 +6732,7 @@
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="3" t="s">
         <v>669</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -6719,7 +6740,7 @@
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="3" t="s">
         <v>671</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -6727,7 +6748,7 @@
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="3" t="s">
         <v>673</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -6735,7 +6756,7 @@
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -6743,7 +6764,7 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -6751,7 +6772,7 @@
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -6759,7 +6780,7 @@
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="3" t="s">
         <v>681</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -6767,7 +6788,7 @@
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -6775,7 +6796,7 @@
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -6783,7 +6804,7 @@
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="3" t="s">
         <v>687</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -6791,7 +6812,7 @@
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="3" t="s">
         <v>689</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -6799,7 +6820,7 @@
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -6807,7 +6828,7 @@
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -6815,7 +6836,7 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -6823,15 +6844,15 @@
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1">
-        <v>790002350001</v>
+      <c r="A352" s="3" t="s">
+        <v>1196</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -6839,7 +6860,7 @@
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -6847,7 +6868,7 @@
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -6855,7 +6876,7 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="3" t="s">
         <v>705</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -6863,7 +6884,7 @@
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="3" t="s">
         <v>707</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -6871,7 +6892,7 @@
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="3" t="s">
         <v>691</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -6879,7 +6900,7 @@
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="3" t="s">
         <v>711</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -6887,7 +6908,7 @@
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="3" t="s">
         <v>713</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -6895,7 +6916,7 @@
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="3" t="s">
         <v>715</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -6903,7 +6924,7 @@
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -6911,7 +6932,7 @@
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="3" t="s">
         <v>719</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -6919,7 +6940,7 @@
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -6927,7 +6948,7 @@
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="3" t="s">
         <v>791</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -6935,7 +6956,7 @@
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -6943,7 +6964,7 @@
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="3" t="s">
         <v>727</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -6951,7 +6972,7 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="3" t="s">
         <v>735</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -6959,7 +6980,7 @@
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="3" t="s">
         <v>731</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -6967,7 +6988,7 @@
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="3" t="s">
         <v>733</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -6975,7 +6996,7 @@
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -6983,7 +7004,7 @@
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="3" t="s">
         <v>737</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -6991,7 +7012,7 @@
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="3" t="s">
         <v>739</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -6999,7 +7020,7 @@
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="3" t="s">
         <v>741</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -7007,7 +7028,7 @@
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="3" t="s">
         <v>743</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -7015,7 +7036,7 @@
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="3" t="s">
         <v>745</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -7023,7 +7044,7 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="3" t="s">
         <v>747</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -7031,7 +7052,7 @@
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="3" t="s">
         <v>749</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -7039,7 +7060,7 @@
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="3" t="s">
         <v>751</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -7047,7 +7068,7 @@
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="3" t="s">
         <v>753</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -7055,7 +7076,7 @@
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="3" t="s">
         <v>755</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -7063,7 +7084,7 @@
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="3" t="s">
         <v>795</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -7071,7 +7092,7 @@
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="3" t="s">
         <v>759</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -7079,7 +7100,7 @@
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="3" t="s">
         <v>761</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -7087,7 +7108,7 @@
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="3" t="s">
         <v>763</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -7095,7 +7116,7 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="3" t="s">
         <v>765</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -7103,7 +7124,7 @@
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="3" t="s">
         <v>767</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -7111,7 +7132,7 @@
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="3" t="s">
         <v>769</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -7119,7 +7140,7 @@
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="3" t="s">
         <v>771</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -7127,7 +7148,7 @@
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="3" t="s">
         <v>773</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -7135,7 +7156,7 @@
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="3" t="s">
         <v>775</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -7143,7 +7164,7 @@
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="3" t="s">
         <v>777</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -7151,7 +7172,7 @@
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="3" t="s">
         <v>779</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -7159,7 +7180,7 @@
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="3" t="s">
         <v>781</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -7167,7 +7188,7 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -7175,7 +7196,7 @@
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="3" t="s">
         <v>785</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -7183,7 +7204,7 @@
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="3" t="s">
         <v>787</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -7191,7 +7212,7 @@
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="3" t="s">
         <v>789</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -7199,7 +7220,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="3" t="s">
         <v>701</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -7207,7 +7228,7 @@
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="3" t="s">
         <v>793</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -7215,7 +7236,7 @@
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -7223,7 +7244,7 @@
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="3" t="s">
         <v>797</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -7231,7 +7252,7 @@
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="3" t="s">
         <v>799</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -7239,7 +7260,7 @@
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="3" t="s">
         <v>801</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -7247,7 +7268,7 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="3" t="s">
         <v>803</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -7255,7 +7276,7 @@
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="3" t="s">
         <v>805</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -7263,7 +7284,7 @@
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="3" t="s">
         <v>807</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -7271,7 +7292,7 @@
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="3" t="s">
         <v>809</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -7279,7 +7300,7 @@
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="3" t="s">
         <v>811</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -7287,7 +7308,7 @@
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="3" t="s">
         <v>813</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -7295,7 +7316,7 @@
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="3" t="s">
         <v>815</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -7303,7 +7324,7 @@
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="3" t="s">
         <v>817</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -7311,7 +7332,7 @@
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="3" t="s">
         <v>819</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -7319,7 +7340,7 @@
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="3" t="s">
         <v>821</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -7327,7 +7348,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="3" t="s">
         <v>823</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -7335,7 +7356,7 @@
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="3" t="s">
         <v>825</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -7343,7 +7364,7 @@
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="3" t="s">
         <v>827</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -7351,7 +7372,7 @@
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="3" t="s">
         <v>829</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -7359,7 +7380,7 @@
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="3" t="s">
         <v>831</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -7367,7 +7388,7 @@
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="3" t="s">
         <v>833</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -7375,7 +7396,7 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="3" t="s">
         <v>835</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -7383,7 +7404,7 @@
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="3" t="s">
         <v>837</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -7391,7 +7412,7 @@
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="3" t="s">
         <v>839</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -7399,7 +7420,7 @@
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="3" t="s">
         <v>841</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -7407,7 +7428,7 @@
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="3" t="s">
         <v>843</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -7415,7 +7436,7 @@
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="3" t="s">
         <v>845</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -7423,7 +7444,7 @@
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="3" t="s">
         <v>847</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -7431,7 +7452,7 @@
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="3" t="s">
         <v>849</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -7439,7 +7460,7 @@
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="4" t="s">
         <v>851</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -7447,7 +7468,7 @@
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="3" t="s">
         <v>853</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -7455,7 +7476,7 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="3" t="s">
         <v>855</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -7463,7 +7484,7 @@
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="3" t="s">
         <v>857</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -7471,7 +7492,7 @@
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="3" t="s">
         <v>859</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -7479,7 +7500,7 @@
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="3" t="s">
         <v>861</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -7487,7 +7508,7 @@
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="3" t="s">
         <v>863</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -7495,7 +7516,7 @@
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="3" t="s">
         <v>865</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -7503,7 +7524,7 @@
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="3" t="s">
         <v>867</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -7511,7 +7532,7 @@
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="3" t="s">
         <v>869</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -7519,7 +7540,7 @@
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="3" t="s">
         <v>871</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -7527,7 +7548,7 @@
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="3" t="s">
         <v>873</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -7535,7 +7556,7 @@
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="3" t="s">
         <v>875</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -7543,7 +7564,7 @@
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="3" t="s">
         <v>877</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -7551,7 +7572,7 @@
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="3" t="s">
         <v>879</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -7559,7 +7580,7 @@
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="3" t="s">
         <v>881</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -7567,7 +7588,7 @@
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="3" t="s">
         <v>883</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -7575,7 +7596,7 @@
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="3" t="s">
         <v>885</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -7583,7 +7604,7 @@
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="3" t="s">
         <v>887</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -7591,7 +7612,7 @@
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="3" t="s">
         <v>889</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -7599,7 +7620,7 @@
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="3" t="s">
         <v>891</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -7607,7 +7628,7 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="3" t="s">
         <v>893</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -7615,7 +7636,7 @@
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="3" t="s">
         <v>895</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -7623,7 +7644,7 @@
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="3" t="s">
         <v>897</v>
       </c>
       <c r="B452" s="1" t="s">
@@ -7631,7 +7652,7 @@
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="3" t="s">
         <v>899</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -7639,7 +7660,7 @@
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="3" t="s">
         <v>901</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -7647,7 +7668,7 @@
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="3" t="s">
         <v>903</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -7655,7 +7676,7 @@
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="3" t="s">
         <v>905</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -7663,7 +7684,7 @@
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="3" t="s">
         <v>907</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -7671,7 +7692,7 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="3" t="s">
         <v>909</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -7679,7 +7700,7 @@
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="3" t="s">
         <v>911</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -7687,7 +7708,7 @@
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="3" t="s">
         <v>913</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -7695,7 +7716,7 @@
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -7703,7 +7724,7 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="3" t="s">
         <v>917</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -7711,7 +7732,7 @@
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="3" t="s">
         <v>919</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -7719,7 +7740,7 @@
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="3" t="s">
         <v>921</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -7727,7 +7748,7 @@
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="3" t="s">
         <v>923</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -7735,7 +7756,7 @@
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="3" t="s">
         <v>925</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -7743,7 +7764,7 @@
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="3" t="s">
         <v>927</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -7751,7 +7772,7 @@
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="3" t="s">
         <v>929</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -7759,7 +7780,7 @@
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="3" t="s">
         <v>931</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -7767,7 +7788,7 @@
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="3" t="s">
         <v>933</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -7775,7 +7796,7 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="3" t="s">
         <v>935</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -7783,7 +7804,7 @@
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="3" t="s">
         <v>937</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -7791,7 +7812,7 @@
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="3" t="s">
         <v>939</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -7799,7 +7820,7 @@
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="3" t="s">
         <v>941</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -7807,7 +7828,7 @@
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="3" t="s">
         <v>943</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -7815,7 +7836,7 @@
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="3" t="s">
         <v>945</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -7823,7 +7844,7 @@
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="3" t="s">
         <v>947</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -7831,7 +7852,7 @@
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="3" t="s">
         <v>949</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -7839,7 +7860,7 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -7847,7 +7868,7 @@
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="3" t="s">
         <v>953</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -7855,7 +7876,7 @@
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="3" t="s">
         <v>955</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -7863,7 +7884,7 @@
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="3" t="s">
         <v>957</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -7871,7 +7892,7 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="3" t="s">
         <v>959</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -7879,7 +7900,7 @@
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="3" t="s">
         <v>961</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -7887,7 +7908,7 @@
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="3" t="s">
         <v>963</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -7895,7 +7916,7 @@
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="3" t="s">
         <v>965</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -7903,7 +7924,7 @@
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="3" t="s">
         <v>967</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -7911,7 +7932,7 @@
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="3" t="s">
         <v>969</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -7919,7 +7940,7 @@
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="3" t="s">
         <v>971</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -7927,7 +7948,7 @@
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="3" t="s">
         <v>973</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -7935,7 +7956,7 @@
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="3" t="s">
         <v>975</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -7943,7 +7964,7 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="3" t="s">
         <v>977</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -7951,7 +7972,7 @@
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="3" t="s">
         <v>979</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -7959,7 +7980,7 @@
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="3" t="s">
         <v>981</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -7967,7 +7988,7 @@
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="3" t="s">
         <v>983</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -7975,7 +7996,7 @@
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="3" t="s">
         <v>985</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -7983,7 +8004,7 @@
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="3" t="s">
         <v>987</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -7991,7 +8012,7 @@
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="3" t="s">
         <v>989</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -7999,7 +8020,7 @@
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="3" t="s">
         <v>991</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -8007,7 +8028,7 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="3" t="s">
         <v>993</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -8015,7 +8036,7 @@
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="3" t="s">
         <v>995</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -8023,7 +8044,7 @@
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="3" t="s">
         <v>997</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -8031,7 +8052,7 @@
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="3" t="s">
         <v>999</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -8039,7 +8060,7 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -8047,7 +8068,7 @@
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -8055,7 +8076,7 @@
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -8063,7 +8084,7 @@
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -8071,7 +8092,7 @@
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="3" t="s">
         <v>1009</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -8079,7 +8100,7 @@
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -8087,7 +8108,7 @@
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -8095,7 +8116,7 @@
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -8103,7 +8124,7 @@
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="3" t="s">
         <v>1017</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -8111,7 +8132,7 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="3" t="s">
         <v>1019</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -8119,7 +8140,7 @@
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -8127,7 +8148,7 @@
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="3" t="s">
         <v>1023</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -8135,7 +8156,7 @@
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="3" t="s">
         <v>1025</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -8143,7 +8164,7 @@
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="3" t="s">
         <v>1027</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -8151,7 +8172,7 @@
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="3" t="s">
         <v>1029</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -8159,7 +8180,7 @@
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -8167,7 +8188,7 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -8175,7 +8196,7 @@
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="3" t="s">
         <v>1035</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -8183,7 +8204,7 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="3" t="s">
         <v>1037</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -8191,7 +8212,7 @@
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="3" t="s">
         <v>1039</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -8199,7 +8220,7 @@
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -8207,7 +8228,7 @@
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="3" t="s">
         <v>1043</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -8215,7 +8236,7 @@
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="3" t="s">
         <v>1045</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -8223,7 +8244,7 @@
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -8231,7 +8252,7 @@
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -8239,7 +8260,7 @@
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="3" t="s">
         <v>1051</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -8247,7 +8268,7 @@
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="3" t="s">
         <v>1053</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -8255,7 +8276,7 @@
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -8263,7 +8284,7 @@
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -8271,7 +8292,7 @@
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="3" t="s">
         <v>1059</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -8279,7 +8300,7 @@
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -8287,7 +8308,7 @@
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -8295,7 +8316,7 @@
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -8303,7 +8324,7 @@
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="3" t="s">
         <v>1067</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -8311,7 +8332,7 @@
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -8319,7 +8340,7 @@
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -8327,7 +8348,7 @@
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -8335,7 +8356,7 @@
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -8343,7 +8364,7 @@
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="3" t="s">
         <v>1077</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -8351,7 +8372,7 @@
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="3" t="s">
         <v>1079</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -8367,7 +8388,7 @@
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -8375,7 +8396,7 @@
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="3" t="s">
         <v>1085</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -8383,7 +8404,7 @@
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="3" t="s">
         <v>1087</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -8391,7 +8412,7 @@
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="3" t="s">
         <v>1089</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -8399,7 +8420,7 @@
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="3" t="s">
         <v>1091</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -8407,7 +8428,7 @@
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="3" t="s">
         <v>1093</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -8415,7 +8436,7 @@
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -8423,7 +8444,7 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="3" t="s">
         <v>1097</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -8431,7 +8452,7 @@
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="3" t="s">
         <v>1099</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -8439,7 +8460,7 @@
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -8447,7 +8468,7 @@
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -8455,7 +8476,7 @@
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="3" t="s">
         <v>1105</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -8463,7 +8484,7 @@
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="3" t="s">
         <v>1107</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -8471,7 +8492,7 @@
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="3" t="s">
         <v>1109</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -8479,7 +8500,7 @@
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -8487,7 +8508,7 @@
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -8495,7 +8516,7 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="3" t="s">
         <v>1115</v>
       </c>
       <c r="B561" s="1" t="s">
@@ -8503,7 +8524,7 @@
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="B562" s="1" t="s">
@@ -8511,7 +8532,7 @@
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="3" t="s">
         <v>1119</v>
       </c>
       <c r="B563" s="1" t="s">
@@ -8519,7 +8540,7 @@
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="3" t="s">
         <v>1121</v>
       </c>
       <c r="B564" s="1" t="s">
@@ -8527,7 +8548,7 @@
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -8535,7 +8556,7 @@
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="3" t="s">
         <v>1125</v>
       </c>
       <c r="B566" s="1" t="s">
@@ -8543,7 +8564,7 @@
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="3" t="s">
         <v>1127</v>
       </c>
       <c r="B567" s="1" t="s">
@@ -8551,7 +8572,7 @@
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="B568" s="1" t="s">
@@ -8559,7 +8580,7 @@
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="3" t="s">
         <v>1131</v>
       </c>
       <c r="B569" s="1" t="s">
@@ -8567,7 +8588,7 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="3" t="s">
         <v>1133</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -8575,7 +8596,7 @@
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="B571" s="1" t="s">
@@ -8583,7 +8604,7 @@
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="3" t="s">
         <v>1137</v>
       </c>
       <c r="B572" s="1" t="s">
@@ -8591,7 +8612,7 @@
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="3" t="s">
         <v>1139</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -8599,7 +8620,7 @@
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="B574" s="1" t="s">
@@ -8607,7 +8628,7 @@
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="B575" s="1" t="s">
@@ -8615,7 +8636,7 @@
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="3" t="s">
         <v>1145</v>
       </c>
       <c r="B576" s="1" t="s">
@@ -8623,7 +8644,7 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="3" t="s">
         <v>1147</v>
       </c>
       <c r="B577" s="1" t="s">
@@ -8631,7 +8652,7 @@
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -8639,7 +8660,7 @@
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="B579" s="1" t="s">
@@ -8647,7 +8668,7 @@
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="3" t="s">
         <v>1153</v>
       </c>
       <c r="B580" s="1" t="s">
@@ -8655,7 +8676,7 @@
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="3" t="s">
         <v>1155</v>
       </c>
       <c r="B581" s="1" t="s">
@@ -8663,7 +8684,7 @@
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="3" t="s">
         <v>1157</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -8671,7 +8692,7 @@
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -8679,7 +8700,7 @@
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -8687,7 +8708,7 @@
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="3" t="s">
         <v>1163</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -8695,7 +8716,7 @@
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="3" t="s">
         <v>1165</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -8703,7 +8724,7 @@
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="3" t="s">
         <v>1167</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -8711,7 +8732,7 @@
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="3" t="s">
         <v>1169</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -8719,7 +8740,7 @@
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -8727,7 +8748,7 @@
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="3" t="s">
         <v>1173</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -8735,7 +8756,7 @@
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="3" t="s">
         <v>1175</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -8743,7 +8764,7 @@
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="B592" s="1" t="s">
@@ -8751,7 +8772,7 @@
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="3" t="s">
         <v>1179</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -8759,7 +8780,7 @@
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="3" t="s">
         <v>1181</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -8767,7 +8788,7 @@
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="B595" s="1" t="s">
@@ -8775,7 +8796,7 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="3" t="s">
         <v>1185</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -8783,56 +8804,56 @@
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="1">
-        <v>1760002950001</v>
+      <c r="A597" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="1">
-        <v>1760002870001</v>
-      </c>
-      <c r="B598" s="6" t="s">
+      <c r="A598" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B598" s="5" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="1">
-        <v>1760003090001</v>
-      </c>
-      <c r="B599" s="6" t="s">
+      <c r="A599" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B599" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="1">
-        <v>1768095900001</v>
-      </c>
-      <c r="B600" s="6" t="s">
+      <c r="A600" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B600" s="5" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="1">
-        <v>1760003170001</v>
-      </c>
-      <c r="B601" s="6" t="s">
+      <c r="A601" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B601" s="5" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1"/>
-      <c r="B602" s="6"/>
+      <c r="B602" s="5"/>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1"/>
-      <c r="B603" s="7"/>
+      <c r="B603" s="6"/>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1"/>
-      <c r="B604" s="7"/>
+      <c r="B604" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B604" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
